--- a/rider/weekly/2016_48.xlsx
+++ b/rider/weekly/2016_48.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>261</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>279</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>265.4</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.8</c:v>
+                  <c:v>233.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198.6</c:v>
+                  <c:v>197.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>248.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>232.8</c:v>
+                  <c:v>237.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.83</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.67</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D2">
-        <v>265.4</v>
+        <v>262.2</v>
       </c>
       <c r="E2">
         <v>92.86</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3">
-        <v>231.8</v>
+        <v>233.4</v>
       </c>
       <c r="E3">
         <v>93.02</v>
@@ -847,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>198.6</v>
+        <v>197.2</v>
       </c>
       <c r="E4">
         <v>93.18000000000001</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>250</v>
+        <v>248.75</v>
       </c>
       <c r="E5">
         <v>93.34</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D6">
-        <v>232.8</v>
+        <v>237.2</v>
       </c>
       <c r="E6">
         <v>93.5</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D7">
-        <v>123.83</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>93.67</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D8">
-        <v>92.67</v>
+        <v>89.5</v>
       </c>
       <c r="E8">
         <v>93.83</v>
